--- a/TO_DO_LIST_ETU002456_ETU002608_ETU002429_ETU002855 (1).xlsx
+++ b/TO_DO_LIST_ETU002456_ETU002608_ETU002429_ETU002855 (1).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\S5\Web\CloudProjectV2\CloudProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AC53B7-B1D0-42A0-8F34-5B89F91FAEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="1" r:id="rId1"/>
@@ -316,8 +322,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,6 +394,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -569,14 +583,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5546875" defaultRowHeight="11.4" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5546875" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="76.77734375" customWidth="1"/>
     <col min="2" max="2" width="34.6640625" customWidth="1"/>
@@ -585,7 +599,7 @@
     <col min="5" max="5" width="10.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4">
+    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -605,7 +619,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4">
+    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -625,7 +639,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.4">
+    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -639,7 +653,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.4">
+    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -659,7 +673,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.4">
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -673,7 +687,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.4">
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -693,7 +707,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.4">
+    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -707,7 +721,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.4">
+    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -727,7 +741,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.4">
+    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -741,7 +755,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.4">
+    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -755,7 +769,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.4">
+    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -769,7 +783,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.4">
+    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -783,7 +797,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.4">
+    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -797,7 +811,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.4">
+    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -811,7 +825,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="14.4">
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>80</v>
       </c>
@@ -825,7 +839,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.4">
+    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -839,7 +853,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.4">
+    <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -853,7 +867,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.4">
+    <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -867,7 +881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14.4">
+    <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -881,7 +895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.4">
+    <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -895,7 +909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.4">
+    <row r="21" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -909,7 +923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14.4">
+    <row r="22" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -923,7 +937,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14.4">
+    <row r="23" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -937,7 +951,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="14.4">
+    <row r="24" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -951,7 +965,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="14.4">
+    <row r="25" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -965,7 +979,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="14.4">
+    <row r="26" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -979,7 +993,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="14.4">
+    <row r="27" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -993,12 +1007,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="14.4">
+    <row r="28" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C28">
         <v>20</v>
@@ -1007,7 +1021,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="14.4">
+    <row r="29" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1021,7 +1035,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="14.4">
+    <row r="30" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1035,7 +1049,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="14.4">
+    <row r="31" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1049,7 +1063,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="14.4">
+    <row r="32" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1063,7 +1077,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14.4">
+    <row r="33" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1077,7 +1091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="14.4">
+    <row r="34" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1091,7 +1105,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14.4">
+    <row r="35" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1105,7 +1119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="14.4">
+    <row r="36" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1119,7 +1133,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14.4">
+    <row r="37" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1133,7 +1147,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="1" customFormat="1" ht="14.4">
+    <row r="38" spans="1:4" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>75</v>
       </c>
@@ -1147,7 +1161,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="14.4">
+    <row r="39" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1161,7 +1175,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="14.4">
+    <row r="40" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1175,7 +1189,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="14.4">
+    <row r="41" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1189,7 +1203,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="14.4">
+    <row r="42" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1203,7 +1217,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="14.4">
+    <row r="43" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1217,7 +1231,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="14.4">
+    <row r="44" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1231,7 +1245,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="14.4">
+    <row r="45" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1245,7 +1259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="14.4">
+    <row r="46" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1259,7 +1273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="14.4">
+    <row r="47" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1273,7 +1287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="14.4">
+    <row r="48" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1287,7 +1301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="1" customFormat="1" ht="14.4">
+    <row r="49" spans="1:4" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
@@ -1301,7 +1315,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="14.4">
+    <row r="50" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
@@ -1315,7 +1329,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="14.4">
+    <row r="51" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1329,7 +1343,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="14.4">
+    <row r="52" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>66</v>
       </c>
@@ -1343,7 +1357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="14.4">
+    <row r="53" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -1357,7 +1371,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="1" customFormat="1" ht="14.4">
+    <row r="54" spans="1:4" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>77</v>
       </c>
@@ -1371,7 +1385,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="14.4">
+    <row r="55" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1385,7 +1399,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="14.4">
+    <row r="56" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -1399,7 +1413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="14.4">
+    <row r="57" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
@@ -1413,7 +1427,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="14.4">
+    <row r="58" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1427,7 +1441,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="1" customFormat="1" ht="14.4">
+    <row r="59" spans="1:4" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>70</v>
       </c>
@@ -1441,7 +1455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="1" customFormat="1" ht="14.4">
+    <row r="60" spans="1:4" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>71</v>
       </c>
@@ -1455,7 +1469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="14.4">
+    <row r="61" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -1469,7 +1483,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="14.4">
+    <row r="62" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -1483,7 +1497,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="14.4">
+    <row r="63" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -1497,7 +1511,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="14.4">
+    <row r="64" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>68</v>
       </c>
@@ -1511,7 +1525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="11.4" customHeight="1">
+    <row r="65" spans="1:4" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
@@ -1525,7 +1539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="14.4">
+    <row r="66" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>52</v>
       </c>
@@ -1539,7 +1553,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="14.4">
+    <row r="67" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>57</v>
       </c>
@@ -1553,7 +1567,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="14.4">
+    <row r="68" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>63</v>
       </c>
@@ -1567,7 +1581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="11.4" customHeight="1">
+    <row r="69" spans="1:4" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
@@ -1581,7 +1595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="14.4">
+    <row r="70" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>56</v>
       </c>
@@ -1595,7 +1609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="14.4">
+    <row r="71" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>64</v>
       </c>
@@ -1609,7 +1623,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="11.4" customHeight="1">
+    <row r="72" spans="1:4" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>65</v>
       </c>
@@ -1623,7 +1637,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="11.4" customHeight="1">
+    <row r="73" spans="1:4" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>83</v>
       </c>
@@ -1637,7 +1651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="11.4" customHeight="1">
+    <row r="74" spans="1:4" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>84</v>
       </c>
@@ -1651,20 +1665,32 @@
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="11.4" customHeight="1">
+    <row r="75" spans="1:4" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="11.4" customHeight="1">
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75">
+        <v>10</v>
+      </c>
+      <c r="D75" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>85</v>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76">
+        <v>10</v>
+      </c>
+      <c r="D76" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/TO_DO_LIST_ETU002456_ETU002608_ETU002429_ETU002855 (1).xlsx
+++ b/TO_DO_LIST_ETU002456_ETU002608_ETU002429_ETU002855 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\S5\Web\CloudProjectV2\CloudProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AC53B7-B1D0-42A0-8F34-5B89F91FAEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC70906-6B8C-4A36-B47A-C5E98AD813B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5546875" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -670,7 +670,7 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>2317</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
